--- a/app接口/接口模板.xlsx
+++ b/app接口/接口模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gusheng\Desktop\notes\app接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7AD662-9D11-4DBD-9667-18D4A38FF190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7126B1-5953-45F4-B724-4D4BD99FFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>接口序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>Data参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,65 +427,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/app接口/接口模板.xlsx
+++ b/app接口/接口模板.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gusheng\Desktop\notes\app接口\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7126B1-5953-45F4-B724-4D4BD99FFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0B2C5-D136-4346-B139-EDB75F027E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="分析信息" sheetId="2" r:id="rId1"/>
+    <sheet name="接口" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -426,29 +427,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF4A446-E9E3-435C-8928-B42F74DA6797}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="86.88671875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="14.44140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="27" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/app接口/接口模板.xlsx
+++ b/app接口/接口模板.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\自媒体\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0B2C5-D136-4346-B139-EDB75F027E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9582ED-1AFB-41C4-9A9D-746692CDD5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分析信息" sheetId="2" r:id="rId1"/>
-    <sheet name="接口" sheetId="1" r:id="rId2"/>
+    <sheet name="用户翻页接口" sheetId="1" r:id="rId2"/>
+    <sheet name="详情页接口" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>接口序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +103,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -137,10 +146,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -148,9 +158,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF4A446-E9E3-435C-8928-B42F74DA6797}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -446,10 +463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -511,6 +528,88 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A12462-2F36-4033-BD5F-EC34A88CE977}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="14.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
